--- a/data/outputs/analysis_summary_interrupted.xlsx
+++ b/data/outputs/analysis_summary_interrupted.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,27 +478,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>57940248000150</t>
+          <t>54711524000110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MPF PRODUCOES E EVENTOS LTDA</t>
+          <t>ALVORADA PRODUCOES LTDA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25.000,00</t>
+          <t>6.500,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TUR-PRO-2025/01077</t>
+          <t>TUR-PRO-2025/01035</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=TUR-PRO-2025/01077</t>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=TUR-PRO-2025/01035</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,7 +511,207 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-12-30T03:33:24.812111</t>
+          <t>2026-01-01T18:26:38.774802</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>57933845000157</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CONSORCIO BIKE EDU</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.299.382,28</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CET-PRO-2024/02113</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=CET-PRO-2024/02113</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-01-01T18:28:17.679870</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30307631000119</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CONSTRUTORA ENTRE OS RIOS LTDA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>539.526,19</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MAB-PRO-2023/01720</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=MAB-PRO-2023/01720</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-01-01T18:30:14.866965</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>52625768000154</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>COOPERATIVA DE AGRICULTORES E EMPREENDEDORES RURAIS PLANTAR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.997.105,03</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SME-PRO-2025/36846</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=SME-PRO-2025/36846</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-01-01T18:32:04.508187</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21368732000109</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RODAFILMES PRODUCAO ARTISTICA E CULTURAL LTDA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.340.086,00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FIL-PRO-2025/00505</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=FIL-PRO-2025/00505</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-01-01T18:34:54.851941</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>85828633570</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AYALA SIMAS DA SILVA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.461,72</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CGM-PRO-2025/00246.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://acesso.processo.rio/sigaex/public/app/transparencia/processo?n=CGM-PRO-2025/00246.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-01-01T18:36:55.404064</t>
         </is>
       </c>
     </row>
